--- a/Sparus_data/Dimensions.xlsx
+++ b/Sparus_data/Dimensions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\MASTER\Underwater_robotics\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DEA547-9039-4AF4-ABAA-4BDB70DCA5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35693EC0-670A-48B1-B97C-5A7AF6306E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5E9517CA-5EB6-4BDB-B1BF-2C8D7EE775C9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Constant</t>
   </si>
@@ -79,12 +79,6 @@
     <t>USBL - Height</t>
   </si>
   <si>
-    <t>?? - Height</t>
-  </si>
-  <si>
-    <t>?? - Radius</t>
-  </si>
-  <si>
     <t>Aproximations</t>
   </si>
   <si>
@@ -119,6 +113,45 @@
   </si>
   <si>
     <t>Thruster back part - Thickness</t>
+  </si>
+  <si>
+    <t>QQ - Height</t>
+  </si>
+  <si>
+    <t>QQ - Radius</t>
+  </si>
+  <si>
+    <t>Thruster - Width</t>
+  </si>
+  <si>
+    <t>Submarine body</t>
+  </si>
+  <si>
+    <t>USBL</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>Antenna</t>
+  </si>
+  <si>
+    <t>Right thruster</t>
+  </si>
+  <si>
+    <t>Left thruster</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>x (m)</t>
+  </si>
+  <si>
+    <t>y (m)</t>
+  </si>
+  <si>
+    <t>z (m)</t>
   </si>
 </sst>
 </file>
@@ -143,24 +176,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -171,8 +186,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -195,17 +228,242 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BAD1EF-6F35-45C2-8D8B-6F5860FA25A8}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,12 +789,14 @@
     <col min="1" max="1" width="33.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" customWidth="1"/>
     <col min="10" max="10" width="9.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -544,415 +804,599 @@
         <f>1600/496</f>
         <v>3.225806451612903</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <f t="shared" ref="C4:C25" si="0">$B$1*B4</f>
         <v>54.838709677419352</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <f t="shared" ref="D4:D25" si="1">C4/1000</f>
         <v>5.4838709677419349E-2</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="7">
         <f>B4+B5+B6</f>
         <v>81</v>
       </c>
-      <c r="I4" s="2">
-        <f>$B$1*H4</f>
-        <v>261.29032258064512</v>
-      </c>
-      <c r="J4" s="2">
-        <f>I4/1000</f>
-        <v>0.26129032258064511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="H4" s="7">
+        <f>ROUNDDOWN($B$1*G4,0)</f>
+        <v>261</v>
+      </c>
+      <c r="I4" s="8">
+        <f>H4/1000</f>
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="22">
         <v>54</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="22">
         <f t="shared" si="0"/>
         <v>174.19354838709677</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="23">
         <f t="shared" si="1"/>
         <v>0.17419354838709677</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="22">
+        <f>((B4+B5)*B7+B6*B8)/G4</f>
+        <v>21.37037037037037</v>
+      </c>
+      <c r="H5" s="22">
+        <f>ROUNDUP($B$1*G5,0)</f>
+        <v>69</v>
+      </c>
+      <c r="I5" s="23">
+        <f t="shared" ref="I5:I13" si="2">H5/1000</f>
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="25">
+        <v>10</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>32.258064516129032</v>
+      </c>
+      <c r="D6" s="26">
+        <f t="shared" si="1"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="13">
+        <f>(B4*B9+B5*B10+B6*B11)/G4</f>
+        <v>10.716049382716049</v>
+      </c>
+      <c r="H6" s="13">
+        <f>ROUNDUP($B$1*G6,0)</f>
+        <v>35</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="19">
+        <v>21</v>
+      </c>
+      <c r="C7" s="19">
+        <f t="shared" si="0"/>
+        <v>67.741935483870961</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" si="1"/>
+        <v>6.774193548387096E-2</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="19">
+        <v>17</v>
+      </c>
+      <c r="H7" s="19">
+        <f>ROUNDUP($B$1*G7,0)</f>
+        <v>55</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="2"/>
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="25">
+        <v>24</v>
+      </c>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>77.419354838709666</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="1"/>
+        <v>7.7419354838709667E-2</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="13">
+        <v>9</v>
+      </c>
+      <c r="H8" s="13">
+        <f>ROUNDDOWN($B$1*G8,0)</f>
+        <v>29</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="2"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="19">
+        <v>18</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" si="0"/>
+        <v>58.064516129032256</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" si="1"/>
+        <v>5.8064516129032254E-2</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="19">
+        <v>11</v>
+      </c>
+      <c r="H9" s="19">
+        <f>ROUNDUP($B$1*G9,1)</f>
+        <v>35.5</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="2"/>
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="10">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" si="0"/>
+        <v>25.806451612903224</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
+        <v>2.5806451612903226E-2</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="13">
+        <v>9</v>
+      </c>
+      <c r="H10" s="13">
+        <f>ROUNDDOWN($B$1*G10,0)</f>
+        <v>29</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="2"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="16">
+        <v>13</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" si="0"/>
+        <v>41.935483870967737</v>
+      </c>
+      <c r="D11" s="17">
+        <f t="shared" si="1"/>
+        <v>4.1935483870967738E-2</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="19">
+        <v>75</v>
+      </c>
+      <c r="H11" s="19">
+        <f>ROUNDDOWN($B$1*G11,0)</f>
+        <v>241</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="2"/>
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="7">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>54.838709677419352</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
+        <v>5.4838709677419349E-2</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="10">
+        <v>14</v>
+      </c>
+      <c r="H12" s="10">
+        <f>ROUNDDOWN($B$1*G12,0)</f>
+        <v>45</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="2"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="16">
+        <v>9</v>
+      </c>
+      <c r="C13" s="16">
+        <f t="shared" si="0"/>
+        <v>29.032258064516128</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="1"/>
+        <v>2.9032258064516127E-2</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="16">
+        <v>33</v>
+      </c>
+      <c r="H13" s="16">
+        <f>ROUNDDOWN($B$1*G13,0)</f>
+        <v>106</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="2"/>
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>35.483870967741936</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
+        <v>3.5483870967741936E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="16">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="0"/>
+        <v>29.032258064516128</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="1"/>
+        <v>2.9032258064516127E-2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="2">
-        <f>((B4+B5)*B7+B6*B8)/H4</f>
-        <v>21.37037037037037</v>
-      </c>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I6" si="2">$B$1*H5</f>
-        <v>68.936678614097971</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" ref="J5:J6" si="3">I5/1000</f>
-        <v>6.8936678614097968E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>32.258064516129032</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="B16" s="7">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>161.29032258064515</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="7">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2">
-        <f>(B4*B9+B5*B10+B6*B11)/H4</f>
-        <v>10.716049382716049</v>
-      </c>
-      <c r="I6" s="2">
-        <f t="shared" si="2"/>
-        <v>34.567901234567898</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="3"/>
-        <v>3.4567901234567898E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B17" s="22">
+        <v>6</v>
+      </c>
+      <c r="C17" s="22">
+        <f t="shared" si="0"/>
+        <v>19.354838709677416</v>
+      </c>
+      <c r="D17" s="23">
+        <f t="shared" si="1"/>
+        <v>1.9354838709677417E-2</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0.44</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
+        <v>-0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="25">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>67.741935483870961</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>6.774193548387096E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="C18" s="25">
+        <f t="shared" si="0"/>
+        <v>25.806451612903224</v>
+      </c>
+      <c r="D18" s="26">
+        <f t="shared" si="1"/>
+        <v>2.5806451612903226E-2</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.70320000000000005</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="19">
+        <v>62</v>
+      </c>
+      <c r="C19" s="19">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="22">
+        <v>-0.39029999999999998</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <v>-0.245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="25">
+        <v>11</v>
+      </c>
+      <c r="C20" s="25">
+        <f t="shared" si="0"/>
+        <v>35.483870967741936</v>
+      </c>
+      <c r="D20" s="26">
+        <f t="shared" si="1"/>
+        <v>3.5483870967741936E-2</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="7">
+        <v>-0.49</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>77.419354838709666</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>7.7419354838709667E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>58.064516129032256</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>5.8064516129032254E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>25.806451612903224</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>2.5806451612903226E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>41.935483870967737</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>4.1935483870967738E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="B21" s="19">
+        <v>16</v>
+      </c>
+      <c r="C21" s="19">
+        <f t="shared" si="0"/>
+        <v>51.612903225806448</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" si="1"/>
+        <v>5.1612903225806452E-2</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="22">
+        <v>-0.49</v>
+      </c>
+      <c r="H21" s="22">
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="I21" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="10">
         <v>17</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C22" s="10">
         <f t="shared" si="0"/>
         <v>54.838709677419352</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D22" s="11">
         <f t="shared" si="1"/>
         <v>5.4838709677419349E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="0"/>
-        <v>29.032258064516128</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>2.9032258064516127E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>35.483870967741936</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5483870967741936E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>29.032258064516128</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>2.9032258064516127E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="0"/>
-        <v>161.29032258064515</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>0.16129032258064516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="0"/>
-        <v>19.354838709677416</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9354838709677417E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="0"/>
-        <v>25.806451612903224</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>2.5806451612903226E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="2">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
-        <v>35.483870967741936</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>3.5483870967741936E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="0"/>
-        <v>51.612903225806448</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="1"/>
-        <v>5.1612903225806452E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="3">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="0"/>
-        <v>54.838709677419352</v>
-      </c>
-      <c r="D22" s="3">
-        <f t="shared" si="1"/>
-        <v>5.4838709677419349E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="B23" s="16">
         <v>3.5</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="16">
         <f t="shared" si="0"/>
         <v>11.29032258064516</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="17">
         <f t="shared" si="1"/>
         <v>1.1290322580645161E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
         <v>33</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="2">
         <f t="shared" si="0"/>
         <v>106.45161290322579</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="2">
         <f t="shared" si="1"/>
         <v>0.10645161290322579</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>